--- a/data/trans_orig/P11-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P11-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>6440</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2746</v>
+        <v>2485</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13326</v>
+        <v>14611</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009279868272640275</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003957033459953359</v>
+        <v>0.003580541783833086</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01920071807125126</v>
+        <v>0.02105353817711727</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -765,19 +765,19 @@
         <v>5192</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1802</v>
+        <v>1854</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10612</v>
+        <v>12135</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007543345715642898</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002617545826264931</v>
+        <v>0.002693589720936391</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01541688077779201</v>
+        <v>0.01762922464104269</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -786,19 +786,19 @@
         <v>11633</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5942</v>
+        <v>6006</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21049</v>
+        <v>19610</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.008415162724945108</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004298290607808271</v>
+        <v>0.004345068156566183</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01522661519414398</v>
+        <v>0.01418575698342019</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>12519</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6772</v>
+        <v>7233</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20547</v>
+        <v>22415</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01803810940644681</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.00975800155035393</v>
+        <v>0.01042226390336427</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02960645519228801</v>
+        <v>0.0322976452874266</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -836,19 +836,19 @@
         <v>15550</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8745</v>
+        <v>9588</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>24742</v>
+        <v>24749</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02259069823695117</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01270362945977689</v>
+        <v>0.01392907219114858</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03594396770461469</v>
+        <v>0.0359547488343737</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>28</v>
@@ -857,19 +857,19 @@
         <v>28069</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>19168</v>
+        <v>18829</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>39404</v>
+        <v>40279</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02030508186945877</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01386622800962626</v>
+        <v>0.01362119569774042</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02850497979267364</v>
+        <v>0.02913793745323407</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>39330</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>29278</v>
+        <v>29100</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>52303</v>
+        <v>52194</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0566698002891629</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04218683781319706</v>
+        <v>0.04193053595070133</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07536362759690589</v>
+        <v>0.07520620032091653</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>59</v>
@@ -907,19 +907,19 @@
         <v>57269</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>44216</v>
+        <v>44359</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>73140</v>
+        <v>72773</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0831971222966939</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06423422608617925</v>
+        <v>0.06444246899980707</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1062539807585937</v>
+        <v>0.1057212422619318</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>99</v>
@@ -928,19 +928,19 @@
         <v>96598</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>79672</v>
+        <v>79119</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>117985</v>
+        <v>116768</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.06987914353263382</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05763443118045547</v>
+        <v>0.05723488273942662</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08535033350131098</v>
+        <v>0.08446976935846377</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>95261</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>79694</v>
+        <v>79269</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>114341</v>
+        <v>113887</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1372617917512143</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1148303252806649</v>
+        <v>0.1142186339077826</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1647531940687044</v>
+        <v>0.1640994441035554</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>129</v>
@@ -978,19 +978,19 @@
         <v>127419</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>107889</v>
+        <v>109948</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>146462</v>
+        <v>147832</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1851077319361778</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1567353621611343</v>
+        <v>0.1597262020025902</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2127722233119605</v>
+        <v>0.2147618200753209</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>225</v>
@@ -999,19 +999,19 @@
         <v>222680</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>196726</v>
+        <v>195644</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>250485</v>
+        <v>248104</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1610867917467033</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1423116774670413</v>
+        <v>0.1415286858847298</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1812007988334621</v>
+        <v>0.1794782943050048</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>540462</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>518713</v>
+        <v>520045</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>561269</v>
+        <v>560121</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7787504302805358</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7474127210985606</v>
+        <v>0.7493312596234888</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8087303089207442</v>
+        <v>0.8070761900914595</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>488</v>
@@ -1049,19 +1049,19 @@
         <v>482920</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>458911</v>
+        <v>460935</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>506360</v>
+        <v>506316</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7015611018145342</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6666816697485023</v>
+        <v>0.6696224480932635</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7356126640342845</v>
+        <v>0.7355484567455576</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1016</v>
@@ -1070,19 +1070,19 @@
         <v>1023382</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>991168</v>
+        <v>990862</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1056564</v>
+        <v>1056192</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.740313820126259</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7170101288976468</v>
+        <v>0.7167886865527965</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7643170582598334</v>
+        <v>0.7640484612469126</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>9147</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4228</v>
+        <v>4084</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16418</v>
+        <v>16441</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009510203711862555</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00439565611180184</v>
+        <v>0.00424657081082745</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01707035586482729</v>
+        <v>0.01709374549933311</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -1195,19 +1195,19 @@
         <v>11982</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5661</v>
+        <v>5979</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22731</v>
+        <v>24726</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0123730569837408</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005846166576619235</v>
+        <v>0.006174143970002497</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02347272714690073</v>
+        <v>0.02553311661888494</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -1216,19 +1216,19 @@
         <v>21129</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13085</v>
+        <v>13579</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>32087</v>
+        <v>33860</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0109465197403065</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006779277736219886</v>
+        <v>0.007035135158956553</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0166236883025075</v>
+        <v>0.01754218594166471</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>30423</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>19996</v>
+        <v>21118</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>43172</v>
+        <v>41792</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03163107992927823</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02079025415876388</v>
+        <v>0.02195675980185339</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04488713319570593</v>
+        <v>0.04345232042992796</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>27</v>
@@ -1266,19 +1266,19 @@
         <v>28225</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>18872</v>
+        <v>18677</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>40749</v>
+        <v>41660</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02914603902168676</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0194879691545999</v>
+        <v>0.0192864985385554</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04207935666368527</v>
+        <v>0.04301997112844386</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>56</v>
@@ -1287,19 +1287,19 @@
         <v>58648</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>43904</v>
+        <v>43641</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>73952</v>
+        <v>75801</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03038431533886987</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02274612895680171</v>
+        <v>0.0226096469381821</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03831301012323448</v>
+        <v>0.03927139341855362</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>44491</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>32429</v>
+        <v>33046</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>59220</v>
+        <v>59291</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04625810792879807</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03371716118148452</v>
+        <v>0.03435886575282105</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06157177487872995</v>
+        <v>0.06164599331670476</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>59</v>
@@ -1337,19 +1337,19 @@
         <v>65660</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>51028</v>
+        <v>49499</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>83428</v>
+        <v>82208</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0678026437483682</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05269395410618855</v>
+        <v>0.05111419632458148</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08615062279724776</v>
+        <v>0.08489157145471235</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>102</v>
@@ -1358,19 +1358,19 @@
         <v>110151</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>90391</v>
+        <v>88628</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>131544</v>
+        <v>131403</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.057067171189917</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04682983589482292</v>
+        <v>0.04591658930880497</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0681509086525013</v>
+        <v>0.06807786141803858</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>65935</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>52151</v>
+        <v>50862</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>82203</v>
+        <v>82794</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06855334065727545</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0542218519564844</v>
+        <v>0.05288218847688621</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08546740456181698</v>
+        <v>0.08608184863027019</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>144</v>
@@ -1408,19 +1408,19 @@
         <v>152562</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>130432</v>
+        <v>131324</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>177445</v>
+        <v>178309</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1575418062955468</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1346891838756414</v>
+        <v>0.1356097791424488</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1832368955917229</v>
+        <v>0.1841283583245285</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>209</v>
@@ -1429,19 +1429,19 @@
         <v>218497</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>192392</v>
+        <v>192335</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>247599</v>
+        <v>247264</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1131995545580759</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09967505191773714</v>
+        <v>0.09964567376557139</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1282765653248379</v>
+        <v>0.1281033704698981</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>811805</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>788570</v>
+        <v>790714</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>833771</v>
+        <v>833937</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8440472677727857</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8198902266917196</v>
+        <v>0.822118617542562</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8668860841097703</v>
+        <v>0.8670590882962923</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>669</v>
@@ -1479,19 +1479,19 @@
         <v>709964</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>679971</v>
+        <v>681311</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>735473</v>
+        <v>736955</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7331364539506574</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7021640955548701</v>
+        <v>0.703547842641211</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.759477313462538</v>
+        <v>0.7610078703218929</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1419</v>
@@ -1500,19 +1500,19 @@
         <v>1521769</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1484634</v>
+        <v>1485082</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1558139</v>
+        <v>1558472</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7884024391728308</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7691634097156256</v>
+        <v>0.7693956219884439</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8072451998721051</v>
+        <v>0.8074176399950352</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>8197</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3697</v>
+        <v>3604</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17403</v>
+        <v>15758</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01208156885937779</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005449222481255136</v>
+        <v>0.0053111740677008</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02564820343662967</v>
+        <v>0.02322422292649824</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -1625,19 +1625,19 @@
         <v>14277</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8621</v>
+        <v>8401</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23729</v>
+        <v>22844</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02087713471092107</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01260602908685732</v>
+        <v>0.01228567636633667</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03470014544568029</v>
+        <v>0.03340607350133952</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>23</v>
@@ -1646,19 +1646,19 @@
         <v>22474</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14888</v>
+        <v>14043</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>33474</v>
+        <v>32738</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01649656433138317</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01092837277292513</v>
+        <v>0.01030783138885255</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02457111721273631</v>
+        <v>0.02403060300896925</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>16839</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9989</v>
+        <v>8801</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27292</v>
+        <v>26200</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02481730060937744</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01472204968769721</v>
+        <v>0.01297070757048065</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04022338083554631</v>
+        <v>0.03861421239320727</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>44</v>
@@ -1696,19 +1696,19 @@
         <v>44389</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>33553</v>
+        <v>32576</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>58353</v>
+        <v>58280</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06491057134085647</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04906584292615732</v>
+        <v>0.04763725223172708</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08533071108919861</v>
+        <v>0.08522472081440098</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>59</v>
@@ -1717,19 +1717,19 @@
         <v>61227</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>48004</v>
+        <v>45885</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>78444</v>
+        <v>76812</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04494239679137086</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03523619722315107</v>
+        <v>0.03368082474397778</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05757960934646605</v>
+        <v>0.05638174357240317</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>26910</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18302</v>
+        <v>18440</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>39782</v>
+        <v>39030</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03966097060229367</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02697357083299845</v>
+        <v>0.02717764894340103</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05863121204126501</v>
+        <v>0.05752391670595459</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>55</v>
@@ -1767,19 +1767,19 @@
         <v>55197</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>42484</v>
+        <v>42116</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>70445</v>
+        <v>69263</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.08071677444920389</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06212619139778614</v>
+        <v>0.06158688509804018</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.103013929222189</v>
+        <v>0.10128543972751</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>82</v>
@@ -1788,19 +1788,19 @@
         <v>82108</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>65715</v>
+        <v>66803</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>101702</v>
+        <v>101584</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06026921697814736</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04823629813858609</v>
+        <v>0.04903507437970835</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07465211377772341</v>
+        <v>0.07456539282224488</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>79110</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>62372</v>
+        <v>63305</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>97740</v>
+        <v>98309</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1165943415054384</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09192453469699612</v>
+        <v>0.09329962401393622</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1440513781561628</v>
+        <v>0.1448899902632658</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>130</v>
@@ -1838,19 +1838,19 @@
         <v>125956</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>107446</v>
+        <v>106882</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>146171</v>
+        <v>148871</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1841887336275124</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1571207565653659</v>
+        <v>0.1562965121217183</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2137497970981038</v>
+        <v>0.2176980534576129</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>206</v>
@@ -1859,19 +1859,19 @@
         <v>205066</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>182640</v>
+        <v>179914</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>232183</v>
+        <v>231924</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1505238169012197</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1340623360635314</v>
+        <v>0.1320616300371825</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1704283513288982</v>
+        <v>0.1702378869109911</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>547452</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>523961</v>
+        <v>526191</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>568205</v>
+        <v>569388</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8068458184235128</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7722235180543685</v>
+        <v>0.7755113820538984</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8374310607599748</v>
+        <v>0.8391756417610142</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>452</v>
@@ -1909,19 +1909,19 @@
         <v>444023</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>418170</v>
+        <v>419136</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>466336</v>
+        <v>469170</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6493067858715061</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.611501717048627</v>
+        <v>0.6129139646812765</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6819362388541325</v>
+        <v>0.6860808611362169</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>967</v>
@@ -1930,19 +1930,19 @@
         <v>991475</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>955829</v>
+        <v>957822</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1021898</v>
+        <v>1022696</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7277680049978789</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7016032687342274</v>
+        <v>0.7030663601495774</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7500996952898662</v>
+        <v>0.7506853316270941</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>6075</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2570</v>
+        <v>2596</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12049</v>
+        <v>13020</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.006447290404293148</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002728102740337304</v>
+        <v>0.002755263266783604</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01278820544603145</v>
+        <v>0.01381825483085928</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>21</v>
@@ -2055,19 +2055,19 @@
         <v>21570</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>14172</v>
+        <v>13379</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>33630</v>
+        <v>30950</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0207676775999904</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01364512099603464</v>
+        <v>0.01288164318446705</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03237960517927807</v>
+        <v>0.02979973800524117</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>28</v>
@@ -2076,19 +2076,19 @@
         <v>27644</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>18987</v>
+        <v>18833</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>39624</v>
+        <v>40194</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01395590812906819</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009585441089217737</v>
+        <v>0.009507612919041366</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02000375423319563</v>
+        <v>0.02029128566010026</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>25247</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>16500</v>
+        <v>17027</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>35495</v>
+        <v>35733</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02679523335904879</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01751203823755219</v>
+        <v>0.01807059996046612</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03767179308935747</v>
+        <v>0.03792465592115008</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>33</v>
@@ -2126,19 +2126,19 @@
         <v>34395</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>23471</v>
+        <v>23905</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>48029</v>
+        <v>47808</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0331163028470954</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02259860285301818</v>
+        <v>0.02301612050031921</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04624342315631438</v>
+        <v>0.04603103305364966</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>61</v>
@@ -2147,19 +2147,19 @@
         <v>59642</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>46481</v>
+        <v>45479</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>75340</v>
+        <v>77316</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03010956374333772</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02346516492814998</v>
+        <v>0.02295967802094814</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03803440423413615</v>
+        <v>0.03903213595655891</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>29960</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>20479</v>
+        <v>20077</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>42125</v>
+        <v>42654</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03179668746367422</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02173485838838735</v>
+        <v>0.02130808434808702</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0447081242451288</v>
+        <v>0.04526911123462204</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>73</v>
@@ -2197,19 +2197,19 @@
         <v>78638</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>62090</v>
+        <v>62319</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>96881</v>
+        <v>99574</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07571488402619807</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05978136399356577</v>
+        <v>0.0600018294189381</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09327952675443367</v>
+        <v>0.09587212317119466</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>105</v>
@@ -2218,19 +2218,19 @@
         <v>108598</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>91211</v>
+        <v>88322</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>131752</v>
+        <v>131718</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05482434339525429</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04604678849739551</v>
+        <v>0.04458816304682393</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06651358401764089</v>
+        <v>0.0664963221046134</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>99800</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>82595</v>
+        <v>82461</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>119168</v>
+        <v>119531</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1059199722480851</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08765938019239128</v>
+        <v>0.08751790701845859</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1264755367062028</v>
+        <v>0.1268607130057705</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>141</v>
@@ -2268,19 +2268,19 @@
         <v>148425</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>127461</v>
+        <v>127443</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>173459</v>
+        <v>171497</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1429070575085815</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.122722440329805</v>
+        <v>0.1227048375778999</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1670099998113996</v>
+        <v>0.1651213205464505</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>247</v>
@@ -2289,19 +2289,19 @@
         <v>248225</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>220565</v>
+        <v>218979</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>279401</v>
+        <v>275978</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.125313434183121</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1113496638588745</v>
+        <v>0.1105489846827543</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1410522777560489</v>
+        <v>0.1393239717513565</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>781140</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>759568</v>
+        <v>757732</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>804622</v>
+        <v>803417</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8290408165248987</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8061456515538865</v>
+        <v>0.8041963708759851</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8539622369428796</v>
+        <v>0.8526836830596384</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>729</v>
@@ -2339,19 +2339,19 @@
         <v>755584</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>727931</v>
+        <v>726892</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>783378</v>
+        <v>783631</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7274940780181346</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7008689712525721</v>
+        <v>0.6998683146810463</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.754254687672321</v>
+        <v>0.7544980262639239</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1550</v>
@@ -2360,19 +2360,19 @@
         <v>1536725</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1500845</v>
+        <v>1500475</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1569788</v>
+        <v>1572307</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7757967505492188</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7576834410868842</v>
+        <v>0.7574966754620266</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7924886580218159</v>
+        <v>0.7937600452438927</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>29859</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>20290</v>
+        <v>20781</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>41581</v>
+        <v>42580</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.009113106603695128</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.006192448785132468</v>
+        <v>0.006342478087440333</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01269039149103867</v>
+        <v>0.0129952648009947</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>50</v>
@@ -2485,19 +2485,19 @@
         <v>53021</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>40125</v>
+        <v>39474</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>70327</v>
+        <v>71143</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0156903108164208</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01187425625645343</v>
+        <v>0.01168133913101284</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02081184223828296</v>
+        <v>0.02105315616635655</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>80</v>
@@ -2506,19 +2506,19 @@
         <v>82880</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>64769</v>
+        <v>66345</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>102886</v>
+        <v>102576</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01245243005533301</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.00973127114035232</v>
+        <v>0.00996810065407659</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01545829987949882</v>
+        <v>0.015411598264715</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>85027</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>67629</v>
+        <v>68648</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>104729</v>
+        <v>103832</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02595029478760604</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02064050301979136</v>
+        <v>0.02095123205053484</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03196316186393042</v>
+        <v>0.03168945079589667</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>119</v>
@@ -2556,19 +2556,19 @@
         <v>122559</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>102959</v>
+        <v>102523</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>145548</v>
+        <v>144176</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03626857248235349</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03046839119076577</v>
+        <v>0.03033932977375925</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04307178725052684</v>
+        <v>0.04266578086156033</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>204</v>
@@ -2577,19 +2577,19 @@
         <v>207586</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>182073</v>
+        <v>181095</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>239468</v>
+        <v>237884</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03118900497086538</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02735580314958439</v>
+        <v>0.02720878234061729</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03597922502199729</v>
+        <v>0.03574119833887413</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>140690</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>117986</v>
+        <v>118067</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>163553</v>
+        <v>165038</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.04293868089702602</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03600927634910981</v>
+        <v>0.03603416592918633</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04991635644324702</v>
+        <v>0.05036960879453274</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>246</v>
@@ -2627,19 +2627,19 @@
         <v>256764</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>226878</v>
+        <v>225552</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>289159</v>
+        <v>286352</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.07598380756012586</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.06713948586187241</v>
+        <v>0.06674725126002855</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.0855704052473245</v>
+        <v>0.08473972102010742</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>388</v>
@@ -2648,19 +2648,19 @@
         <v>397455</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>358054</v>
+        <v>360342</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>435581</v>
+        <v>437877</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.05971607792765644</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0537962532957539</v>
+        <v>0.0541400590999407</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.06544434936866901</v>
+        <v>0.0657892966368976</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>340106</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>308973</v>
+        <v>304614</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>374510</v>
+        <v>373228</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1038003694137794</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09429836607887397</v>
+        <v>0.09296819770876434</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.114300430523858</v>
+        <v>0.1139091232038567</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>544</v>
@@ -2698,19 +2698,19 @@
         <v>554362</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>515356</v>
+        <v>512248</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>602917</v>
+        <v>595467</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1640514799958433</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1525084251210536</v>
+        <v>0.1515885516032531</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1784201881415786</v>
+        <v>0.1762154541987998</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>887</v>
@@ -2719,19 +2719,19 @@
         <v>894469</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>838222</v>
+        <v>838474</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>948998</v>
+        <v>952391</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1343905624572966</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1259396697080489</v>
+        <v>0.1259774971272224</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.142583387574743</v>
+        <v>0.1430931903153237</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>2680859</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2635840</v>
+        <v>2638072</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2724096</v>
+        <v>2727036</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8181975482978935</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8044574898142877</v>
+        <v>0.8051387052662196</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8313933312004204</v>
+        <v>0.8322905565146602</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2338</v>
@@ -2769,19 +2769,19 @@
         <v>2392491</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2341706</v>
+        <v>2339443</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2445216</v>
+        <v>2441492</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7080058291452566</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6929770552501739</v>
+        <v>0.6923073352115495</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7236084851240593</v>
+        <v>0.7225065461662019</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>4952</v>
@@ -2790,19 +2790,19 @@
         <v>5073351</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5005676</v>
+        <v>5002710</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5145609</v>
+        <v>5144330</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7622519245888485</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7520839791909122</v>
+        <v>0.7516383379683245</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7731083478880776</v>
+        <v>0.7729162280179847</v>
       </c>
     </row>
     <row r="33">
@@ -3134,19 +3134,19 @@
         <v>13912</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7748</v>
+        <v>8186</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23651</v>
+        <v>24153</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01993649143741376</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01110354883451572</v>
+        <v>0.01173129132206156</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.033892868818646</v>
+        <v>0.03461236672938089</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -3155,19 +3155,19 @@
         <v>26025</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16955</v>
+        <v>17598</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37811</v>
+        <v>37412</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.037436132521174</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02438885327891392</v>
+        <v>0.02531400797584631</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05439072441016454</v>
+        <v>0.05381671158146691</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>38</v>
@@ -3176,19 +3176,19 @@
         <v>39937</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>28859</v>
+        <v>28491</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>55112</v>
+        <v>53099</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02866972663166046</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02071698475471414</v>
+        <v>0.02045343873735609</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03956340165202427</v>
+        <v>0.03811886435170133</v>
       </c>
     </row>
     <row r="5">
@@ -3205,19 +3205,19 @@
         <v>26514</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16994</v>
+        <v>18066</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>38547</v>
+        <v>38297</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03799626285678968</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02435352308043077</v>
+        <v>0.02589005628705208</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05523948942742882</v>
+        <v>0.05488125445135616</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>49</v>
@@ -3226,19 +3226,19 @@
         <v>53166</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>40643</v>
+        <v>39696</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>69115</v>
+        <v>68996</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0764782869249948</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05846421663591987</v>
+        <v>0.05710267597142699</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09942025219460693</v>
+        <v>0.09924959635343762</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>74</v>
@@ -3247,19 +3247,19 @@
         <v>79680</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>63150</v>
+        <v>62921</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>98838</v>
+        <v>98720</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05720080341449146</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04533416298170843</v>
+        <v>0.04516932875670757</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.070953894554435</v>
+        <v>0.07086891138965072</v>
       </c>
     </row>
     <row r="6">
@@ -3276,19 +3276,19 @@
         <v>31369</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20869</v>
+        <v>21379</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>43616</v>
+        <v>44173</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04495367447665768</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02990579376373853</v>
+        <v>0.03063699844487925</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06250413081217837</v>
+        <v>0.06330219745524993</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>47</v>
@@ -3297,19 +3297,19 @@
         <v>51790</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>37482</v>
+        <v>38781</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>65588</v>
+        <v>66730</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07449881812244755</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05391691067019463</v>
+        <v>0.05578624491744581</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.09434766572093285</v>
+        <v>0.09599054729064671</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>76</v>
@@ -3318,19 +3318,19 @@
         <v>83159</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>64446</v>
+        <v>65410</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>103821</v>
+        <v>101997</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05969824478364157</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04626436982117198</v>
+        <v>0.04695678610199611</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07453098996824373</v>
+        <v>0.07322121069398019</v>
       </c>
     </row>
     <row r="7">
@@ -3347,19 +3347,19 @@
         <v>59956</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>47208</v>
+        <v>46273</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>76545</v>
+        <v>76191</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08592018658787742</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06765156316111225</v>
+        <v>0.06631141596511245</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.10969226577697</v>
+        <v>0.109185100638899</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>98</v>
@@ -3368,19 +3368,19 @@
         <v>105653</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>86697</v>
+        <v>89054</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>125785</v>
+        <v>127318</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1519807334600908</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1247124315134641</v>
+        <v>0.1281028268572853</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1809401180676968</v>
+        <v>0.1831450539239939</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>156</v>
@@ -3389,19 +3389,19 @@
         <v>165610</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>140269</v>
+        <v>143032</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>190217</v>
+        <v>191858</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1188878509036322</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1006964949297927</v>
+        <v>0.1026799255322713</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1365530869456996</v>
+        <v>0.1377309751776863</v>
       </c>
     </row>
     <row r="8">
@@ -3418,19 +3418,19 @@
         <v>566064</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>543842</v>
+        <v>545365</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>587569</v>
+        <v>586496</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8111933846412615</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7793491287838196</v>
+        <v>0.7815307148674043</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8420110512746484</v>
+        <v>0.8404741682623734</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>429</v>
@@ -3439,19 +3439,19 @@
         <v>458542</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>432449</v>
+        <v>432961</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>483925</v>
+        <v>483555</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6596060289712928</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.622071207003158</v>
+        <v>0.6228073487853145</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6961189170923282</v>
+        <v>0.6955871440157151</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>972</v>
@@ -3460,19 +3460,19 @@
         <v>1024606</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>993098</v>
+        <v>986317</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1061487</v>
+        <v>1054958</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7355433742665743</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7129242623017278</v>
+        <v>0.7080565532968889</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7620194136945699</v>
+        <v>0.7573325692691928</v>
       </c>
     </row>
     <row r="9">
@@ -3564,19 +3564,19 @@
         <v>16871</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9566</v>
+        <v>10153</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27442</v>
+        <v>27340</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01664549658698739</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009437999969292139</v>
+        <v>0.01001762376907078</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02707566857848703</v>
+        <v>0.02697439695781949</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>31</v>
@@ -3585,19 +3585,19 @@
         <v>34535</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>24337</v>
+        <v>23138</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48010</v>
+        <v>46862</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03352329009356745</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02362381788891758</v>
+        <v>0.02245969407454348</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04660260195402022</v>
+        <v>0.04548892328743276</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>47</v>
@@ -3606,19 +3606,19 @@
         <v>51406</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>37018</v>
+        <v>38562</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>66969</v>
+        <v>67016</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02515315307128017</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01811272415634197</v>
+        <v>0.01886852179931981</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03276806153814975</v>
+        <v>0.03279076742184461</v>
       </c>
     </row>
     <row r="11">
@@ -3635,19 +3635,19 @@
         <v>34467</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>24835</v>
+        <v>23676</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>48649</v>
+        <v>48250</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03400621298955041</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02450330524985919</v>
+        <v>0.02335988543319153</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.047998993566593</v>
+        <v>0.04760574814966267</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>63</v>
@@ -3656,19 +3656,19 @@
         <v>69113</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>53668</v>
+        <v>53599</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>87854</v>
+        <v>87437</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06708762173876928</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05209488901990825</v>
+        <v>0.05202820914146293</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08527918901668811</v>
+        <v>0.08487451705647593</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>94</v>
@@ -3677,19 +3677,19 @@
         <v>103580</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>83742</v>
+        <v>83490</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>124464</v>
+        <v>125349</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05068169023988567</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04097511327841029</v>
+        <v>0.04085159793526813</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.06090054199796543</v>
+        <v>0.06133345695691884</v>
       </c>
     </row>
     <row r="12">
@@ -3706,19 +3706,19 @@
         <v>36055</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>25367</v>
+        <v>24782</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>50329</v>
+        <v>49009</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03557354556871179</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02502849172406336</v>
+        <v>0.02445093194380561</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04965645486992003</v>
+        <v>0.04835464250175087</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>60</v>
@@ -3727,19 +3727,19 @@
         <v>65505</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>48968</v>
+        <v>51329</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>82522</v>
+        <v>85523</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06358470957390337</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04753260944615659</v>
+        <v>0.04982498284409321</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08010373300780289</v>
+        <v>0.08301643062241784</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>93</v>
@@ -3748,19 +3748,19 @@
         <v>101560</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>83054</v>
+        <v>83361</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>123127</v>
+        <v>122446</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04969324439003273</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04063846739175575</v>
+        <v>0.04078881250020595</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06024613014316562</v>
+        <v>0.05991307649057977</v>
       </c>
     </row>
     <row r="13">
@@ -3777,19 +3777,19 @@
         <v>122679</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>102336</v>
+        <v>101489</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>144933</v>
+        <v>144936</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1210397238694644</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1009686736604459</v>
+        <v>0.1001331539046593</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1429971293536818</v>
+        <v>0.1430002303008363</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>142</v>
@@ -3798,19 +3798,19 @@
         <v>154976</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>133193</v>
+        <v>132761</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>180883</v>
+        <v>181568</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1504334743261427</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1292892877068234</v>
+        <v>0.1288700951026907</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1755818456514814</v>
+        <v>0.1762466731526347</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>252</v>
@@ -3819,19 +3819,19 @@
         <v>277654</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>246704</v>
+        <v>247113</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>311148</v>
+        <v>309724</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1358563485409861</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1207122729209569</v>
+        <v>0.1209123427972258</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1522449794543292</v>
+        <v>0.1515480065148263</v>
       </c>
     </row>
     <row r="14">
@@ -3848,19 +3848,19 @@
         <v>803469</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>775953</v>
+        <v>775609</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>830355</v>
+        <v>826512</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.792735020985286</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7655869628155066</v>
+        <v>0.7652475785150322</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8192623276890245</v>
+        <v>0.8154703085304988</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>642</v>
@@ -3869,19 +3869,19 @@
         <v>706064</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>673224</v>
+        <v>674378</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>735704</v>
+        <v>736953</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6853709042676173</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6534930453372109</v>
+        <v>0.6546133914948169</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7141423243731798</v>
+        <v>0.7153543843636948</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1385</v>
@@ -3890,19 +3890,19 @@
         <v>1509533</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1471027</v>
+        <v>1471100</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1551557</v>
+        <v>1550823</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7386155637578153</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7197743785811219</v>
+        <v>0.719810405943601</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7591778691302258</v>
+        <v>0.758818773057562</v>
       </c>
     </row>
     <row r="15">
@@ -3994,19 +3994,19 @@
         <v>11546</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5285</v>
+        <v>6108</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21192</v>
+        <v>21003</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0153024391043276</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007004430443055665</v>
+        <v>0.008095559838468514</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02808673443041279</v>
+        <v>0.02783689080749884</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>23</v>
@@ -4015,19 +4015,19 @@
         <v>25531</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16232</v>
+        <v>16243</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>38093</v>
+        <v>37892</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03285128078006885</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02088611719359196</v>
+        <v>0.02090055090150262</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04901430277199977</v>
+        <v>0.04875665067983172</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>33</v>
@@ -4036,19 +4036,19 @@
         <v>37077</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>26160</v>
+        <v>26113</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>50406</v>
+        <v>52242</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02420667753574545</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01707949734352839</v>
+        <v>0.01704882766044553</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03290856427305722</v>
+        <v>0.03410777725014497</v>
       </c>
     </row>
     <row r="17">
@@ -4065,19 +4065,19 @@
         <v>19183</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11005</v>
+        <v>10834</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>30806</v>
+        <v>31528</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02542401093779367</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01458563967794152</v>
+        <v>0.01435859317630224</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04082891521442054</v>
+        <v>0.041785488052019</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>42</v>
@@ -4086,19 +4086,19 @@
         <v>47623</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>33491</v>
+        <v>34583</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>63072</v>
+        <v>63496</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06127659080681756</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04309278139689546</v>
+        <v>0.0444981633379252</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08115574617241457</v>
+        <v>0.08170104571688129</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>57</v>
@@ -4107,19 +4107,19 @@
         <v>66805</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>51774</v>
+        <v>51476</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>87354</v>
+        <v>85542</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04361552040799101</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03380172981033765</v>
+        <v>0.03360755383575375</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05703134673843128</v>
+        <v>0.05584842083282675</v>
       </c>
     </row>
     <row r="18">
@@ -4136,19 +4136,19 @@
         <v>17815</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10327</v>
+        <v>10432</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>29119</v>
+        <v>28990</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02361073587963075</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01368711911359514</v>
+        <v>0.0138263104397641</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03859333154685482</v>
+        <v>0.03842159718313432</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>41</v>
@@ -4157,19 +4157,19 @@
         <v>44354</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>32254</v>
+        <v>32216</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>58031</v>
+        <v>60254</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05707113507364463</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04150186927022636</v>
+        <v>0.04145245465673361</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.07466914458023394</v>
+        <v>0.07753017223317524</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>56</v>
@@ -4178,19 +4178,19 @@
         <v>62169</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>46320</v>
+        <v>48632</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>80416</v>
+        <v>80612</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04058845885070181</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03024120427466668</v>
+        <v>0.03175051338360389</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05250180976573192</v>
+        <v>0.05262928503286429</v>
       </c>
     </row>
     <row r="19">
@@ -4207,19 +4207,19 @@
         <v>52137</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>38835</v>
+        <v>38884</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>66662</v>
+        <v>69297</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06909962301706257</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05147040474095121</v>
+        <v>0.0515352593112323</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08835148357365769</v>
+        <v>0.09184321264326725</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>96</v>
@@ -4228,19 +4228,19 @@
         <v>102445</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>84980</v>
+        <v>85891</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>122916</v>
+        <v>124740</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1318178790057246</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1093455050092651</v>
+        <v>0.1105175025208876</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1581574215970483</v>
+        <v>0.1605040911480263</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>144</v>
@@ -4249,19 +4249,19 @@
         <v>154582</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>131827</v>
+        <v>131683</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>177364</v>
+        <v>180025</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1009227094432018</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08606677122038671</v>
+        <v>0.08597234747932857</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.115796765084726</v>
+        <v>0.1175340794303315</v>
       </c>
     </row>
     <row r="20">
@@ -4278,19 +4278,19 @@
         <v>653833</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>633594</v>
+        <v>633369</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>673336</v>
+        <v>673922</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8665631910611854</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8397391526738124</v>
+        <v>0.8394403225339215</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8924118168506523</v>
+        <v>0.8931884893539032</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>503</v>
@@ -4299,19 +4299,19 @@
         <v>557221</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>530733</v>
+        <v>529364</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>579915</v>
+        <v>580301</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7169831143337444</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6829008155120834</v>
+        <v>0.681139463878232</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7461847606934432</v>
+        <v>0.7466815183413312</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1101</v>
@@ -4320,19 +4320,19 @@
         <v>1211054</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1176336</v>
+        <v>1176297</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1243370</v>
+        <v>1245123</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7906666337623599</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7680000595763</v>
+        <v>0.7679746430875355</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8117650945049156</v>
+        <v>0.8129093832824283</v>
       </c>
     </row>
     <row r="21">
@@ -4424,19 +4424,19 @@
         <v>10930</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4963</v>
+        <v>5713</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19865</v>
+        <v>21025</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01158010813613516</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005258160102564633</v>
+        <v>0.006053356503789478</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02104715631008577</v>
+        <v>0.02227693002722351</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>28</v>
@@ -4445,19 +4445,19 @@
         <v>28239</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>20174</v>
+        <v>18295</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>42222</v>
+        <v>40382</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02684550942752261</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01917871787327529</v>
+        <v>0.01739254552052849</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04013863487668073</v>
+        <v>0.03838954459193645</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>38</v>
@@ -4466,19 +4466,19 @@
         <v>39168</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>28636</v>
+        <v>27117</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>54583</v>
+        <v>53769</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01962617639914597</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01434851186192609</v>
+        <v>0.01358771014034794</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02735020463920508</v>
+        <v>0.02694199103235439</v>
       </c>
     </row>
     <row r="23">
@@ -4495,19 +4495,19 @@
         <v>39410</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>27968</v>
+        <v>28220</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>54422</v>
+        <v>54030</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04175633510273564</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02963323775102177</v>
+        <v>0.02989996301968906</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05766175579549281</v>
+        <v>0.05724633537798094</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>61</v>
@@ -4516,19 +4516,19 @@
         <v>66297</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>51806</v>
+        <v>51717</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>84653</v>
+        <v>85313</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.06302564026639092</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04924953006718465</v>
+        <v>0.04916503465787607</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08047580915150743</v>
+        <v>0.08110369932374428</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>96</v>
@@ -4537,19 +4537,19 @@
         <v>105707</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>86527</v>
+        <v>85031</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>126442</v>
+        <v>126980</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.05296693336916512</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04335610901140715</v>
+        <v>0.04260671283187749</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0633567646723204</v>
+        <v>0.06362619957301398</v>
       </c>
     </row>
     <row r="24">
@@ -4566,19 +4566,19 @@
         <v>35337</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>24891</v>
+        <v>24489</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>48372</v>
+        <v>50041</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03744088891135151</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02637228794800067</v>
+        <v>0.02594637859612443</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05125132714562344</v>
+        <v>0.05301993794264565</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>81</v>
@@ -4587,19 +4587,19 @@
         <v>84555</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>67453</v>
+        <v>68501</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>103830</v>
+        <v>103417</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.08038330320879185</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06412498932047483</v>
+        <v>0.0651209183358112</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09870706107709519</v>
+        <v>0.09831473324528343</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>114</v>
@@ -4608,19 +4608,19 @@
         <v>119893</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>100345</v>
+        <v>96571</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>142083</v>
+        <v>141662</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06007492192629971</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05028027062220122</v>
+        <v>0.04838896075339154</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07119402534179819</v>
+        <v>0.07098269910545611</v>
       </c>
     </row>
     <row r="25">
@@ -4637,19 +4637,19 @@
         <v>115246</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>95421</v>
+        <v>95894</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>138523</v>
+        <v>138506</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1221060437607672</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.101100931497739</v>
+        <v>0.1016020754080266</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1467689945032216</v>
+        <v>0.1467503794186689</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>145</v>
@@ -4658,19 +4658,19 @@
         <v>153860</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>131105</v>
+        <v>131697</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>177686</v>
+        <v>176946</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1462686102029133</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1246363168372309</v>
+        <v>0.1251986519444082</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.168918482756287</v>
+        <v>0.1682158615845991</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>251</v>
@@ -4679,19 +4679,19 @@
         <v>269106</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>239060</v>
+        <v>239588</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>303895</v>
+        <v>302680</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1348416184955583</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1197863818155125</v>
+        <v>0.1200509345744983</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1522736758160834</v>
+        <v>0.1516644494400388</v>
       </c>
     </row>
     <row r="26">
@@ -4708,19 +4708,19 @@
         <v>742895</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>715225</v>
+        <v>715198</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>769154</v>
+        <v>766993</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7871166240890105</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7577998625901643</v>
+        <v>0.7577707510407624</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.814938639512611</v>
+        <v>0.8126494773360319</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>688</v>
@@ -4729,19 +4729,19 @@
         <v>718950</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>684633</v>
+        <v>688297</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>748533</v>
+        <v>749725</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6834769368943813</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6508533617809339</v>
+        <v>0.6543363934789064</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7116004563801793</v>
+        <v>0.7127333400683935</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1410</v>
@@ -4750,19 +4750,19 @@
         <v>1461845</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1420594</v>
+        <v>1419806</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1500829</v>
+        <v>1502510</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7324903498098309</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7118206736704052</v>
+        <v>0.7114258172196701</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7520241270713197</v>
+        <v>0.7528663941440704</v>
       </c>
     </row>
     <row r="27">
@@ -4854,19 +4854,19 @@
         <v>53258</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>39721</v>
+        <v>39971</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>69622</v>
+        <v>70471</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01561969921143984</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01164943538629896</v>
+        <v>0.01172287798578036</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02041887703061673</v>
+        <v>0.02066794407324544</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>107</v>
@@ -4875,19 +4875,19 @@
         <v>114330</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>96276</v>
+        <v>93441</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>138144</v>
+        <v>135812</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03216540710495778</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02708619998747859</v>
+        <v>0.02628849363236655</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03886507151770641</v>
+        <v>0.03820913793831279</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>156</v>
@@ -4896,19 +4896,19 @@
         <v>167588</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>143736</v>
+        <v>144823</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>195480</v>
+        <v>195852</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02406451240620651</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0206394314829574</v>
+        <v>0.02079549755590077</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02806957536273628</v>
+        <v>0.02812302637494639</v>
       </c>
     </row>
     <row r="29">
@@ -4925,19 +4925,19 @@
         <v>119574</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>99727</v>
+        <v>98902</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>144525</v>
+        <v>146818</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03506896333762789</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02924813308758016</v>
+        <v>0.02900612535429205</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04238660786955983</v>
+        <v>0.04305901928028756</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>215</v>
@@ -4946,19 +4946,19 @@
         <v>236198</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>206903</v>
+        <v>205245</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>265728</v>
+        <v>267548</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06645156725417849</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05820967641089747</v>
+        <v>0.05774325340500319</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07475931977974908</v>
+        <v>0.07527130136017764</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>321</v>
@@ -4967,19 +4967,19 @@
         <v>355773</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>318498</v>
+        <v>318508</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>395691</v>
+        <v>396527</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05108642414052584</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04573409836521132</v>
+        <v>0.04573555480048315</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05681850006120937</v>
+        <v>0.05693844239265296</v>
       </c>
     </row>
     <row r="30">
@@ -4996,19 +4996,19 @@
         <v>120577</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>99290</v>
+        <v>99904</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>144169</v>
+        <v>143620</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03536295393132471</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02912001826593273</v>
+        <v>0.02929996628564582</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04228217327732349</v>
+        <v>0.04212126789395055</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>229</v>
@@ -5017,19 +5017,19 @@
         <v>246204</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>217491</v>
+        <v>217005</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>278858</v>
+        <v>279094</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.06926647183361409</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.06118860387113891</v>
+        <v>0.06105187872167458</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.07845333498005348</v>
+        <v>0.07851964309583037</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>339</v>
@@ -5038,19 +5038,19 @@
         <v>366780</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>330077</v>
+        <v>329207</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>403294</v>
+        <v>407576</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.05266707154133207</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.04739678768206383</v>
+        <v>0.04727178806933435</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05791014460797181</v>
+        <v>0.05852505482207855</v>
       </c>
     </row>
     <row r="31">
@@ -5067,19 +5067,19 @@
         <v>350018</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>315097</v>
+        <v>310197</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>390977</v>
+        <v>387226</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1026538615818777</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09241222381527509</v>
+        <v>0.09097509271047693</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1146665666027275</v>
+        <v>0.1135663412129923</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>481</v>
@@ -5088,19 +5088,19 @@
         <v>516934</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>475639</v>
+        <v>475856</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>561507</v>
+        <v>560179</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1454332643477966</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1338152924187505</v>
+        <v>0.1338763222122652</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.157973217403051</v>
+        <v>0.1575996809946451</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>803</v>
@@ -5109,19 +5109,19 @@
         <v>866952</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>816163</v>
+        <v>810634</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>929141</v>
+        <v>928067</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1244881685373028</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1171952688096673</v>
+        <v>0.1164013366846506</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1334180487050682</v>
+        <v>0.1332638953851995</v>
       </c>
     </row>
     <row r="32">
@@ -5138,19 +5138,19 @@
         <v>2766260</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2723065</v>
+        <v>2715013</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2814838</v>
+        <v>2814760</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8112945219377298</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7986260583310041</v>
+        <v>0.7962645229059032</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8255415686599425</v>
+        <v>0.825518629123536</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2262</v>
@@ -5159,19 +5159,19 @@
         <v>2440777</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2380978</v>
+        <v>2388389</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2497056</v>
+        <v>2496621</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.686683289459453</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6698595702719138</v>
+        <v>0.6719445293685328</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7025165977550997</v>
+        <v>0.7023941896291402</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>4868</v>
@@ -5180,19 +5180,19 @@
         <v>5207038</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5123634</v>
+        <v>5129722</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5274771</v>
+        <v>5278416</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7476938233746327</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7357176925927976</v>
+        <v>0.7365918489967924</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7574197895231098</v>
+        <v>0.7579431913304323</v>
       </c>
     </row>
     <row r="33">
@@ -5524,19 +5524,19 @@
         <v>11633</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6161</v>
+        <v>6275</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19887</v>
+        <v>20471</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01738742239329583</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009208867969958349</v>
+        <v>0.00937948304528323</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02972447521283854</v>
+        <v>0.03059717838954185</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -5545,19 +5545,19 @@
         <v>27096</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17985</v>
+        <v>17959</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39848</v>
+        <v>38449</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04068118314463429</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0270027910384951</v>
+        <v>0.02696241252139912</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05982571674045937</v>
+        <v>0.05772546434069494</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>37</v>
@@ -5566,19 +5566,19 @@
         <v>38729</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>27493</v>
+        <v>27698</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>52785</v>
+        <v>53897</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02900822915063894</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.020592082790673</v>
+        <v>0.02074554400354619</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03953613144038848</v>
+        <v>0.04036898861359823</v>
       </c>
     </row>
     <row r="5">
@@ -5595,19 +5595,19 @@
         <v>18161</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10629</v>
+        <v>11097</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>27115</v>
+        <v>28476</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02714517201300836</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01588691954212468</v>
+        <v>0.01658692590984982</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04052838643985687</v>
+        <v>0.04256227354660393</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>45</v>
@@ -5616,19 +5616,19 @@
         <v>49428</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>37300</v>
+        <v>36038</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>65134</v>
+        <v>66002</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07420894608835182</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05600024384664772</v>
+        <v>0.05410628756636852</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09778939865187344</v>
+        <v>0.09909300107333849</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>63</v>
@@ -5637,19 +5637,19 @@
         <v>67589</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>52295</v>
+        <v>52345</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>84942</v>
+        <v>86367</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05062437872587868</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03916923942141744</v>
+        <v>0.03920632288104942</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06362213536388968</v>
+        <v>0.06468892306282693</v>
       </c>
     </row>
     <row r="6">
@@ -5666,19 +5666,19 @@
         <v>23121</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15517</v>
+        <v>14333</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>34167</v>
+        <v>35184</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03455869982736984</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02319265096328133</v>
+        <v>0.0214227957894265</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05106786116801003</v>
+        <v>0.05258806791735585</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>32</v>
@@ -5687,19 +5687,19 @@
         <v>34862</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>24955</v>
+        <v>24129</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>48132</v>
+        <v>46560</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05234060846928173</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03746700066934002</v>
+        <v>0.03622717652269204</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.07226333341993792</v>
+        <v>0.06990415764843254</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>54</v>
@@ -5708,19 +5708,19 @@
         <v>57983</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>44061</v>
+        <v>44708</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>75461</v>
+        <v>76646</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04342975016184681</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03300191068736898</v>
+        <v>0.03348677266138508</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05652082939272773</v>
+        <v>0.0574078882190918</v>
       </c>
     </row>
     <row r="7">
@@ -5737,19 +5737,19 @@
         <v>84124</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>67237</v>
+        <v>68812</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>102364</v>
+        <v>102435</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1257369407167863</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1004970497493897</v>
+        <v>0.1028511313809336</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1529992410929701</v>
+        <v>0.1531057849714523</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>101</v>
@@ -5758,19 +5758,19 @@
         <v>105046</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>84143</v>
+        <v>87874</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>123762</v>
+        <v>125306</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1577125049632714</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1263292591682553</v>
+        <v>0.1319308557586603</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1858121696730945</v>
+        <v>0.1881296825898437</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>183</v>
@@ -5779,19 +5779,19 @@
         <v>189170</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>166292</v>
+        <v>165203</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>217860</v>
+        <v>217763</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1416889313391705</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1245531030345142</v>
+        <v>0.1237377096198098</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1631780542689983</v>
+        <v>0.1631051103242174</v>
       </c>
     </row>
     <row r="8">
@@ -5808,19 +5808,19 @@
         <v>532009</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>509295</v>
+        <v>509894</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>551311</v>
+        <v>552146</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7951717650495397</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7612228582680616</v>
+        <v>0.7621182107194725</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8240223113546652</v>
+        <v>0.8252705438451917</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>456</v>
@@ -5829,19 +5829,19 @@
         <v>449628</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>426846</v>
+        <v>421328</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>476917</v>
+        <v>472654</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6750567573344607</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6408519484819584</v>
+        <v>0.6325671237104253</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7160270367997488</v>
+        <v>0.709626402869959</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>968</v>
@@ -5850,19 +5850,19 @@
         <v>981637</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>947790</v>
+        <v>949186</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1011470</v>
+        <v>1014727</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.735248710622465</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.709897082805908</v>
+        <v>0.7109423975077708</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.757593468776141</v>
+        <v>0.7600331082394713</v>
       </c>
     </row>
     <row r="9">
@@ -5954,19 +5954,19 @@
         <v>10856</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5600</v>
+        <v>5932</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18018</v>
+        <v>18596</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01068525859283915</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005512489840363751</v>
+        <v>0.005838719529604285</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01773511792530656</v>
+        <v>0.01830374843064335</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -5975,19 +5975,19 @@
         <v>21013</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13112</v>
+        <v>12920</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33293</v>
+        <v>33831</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02020836085867662</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01260919953080948</v>
+        <v>0.01242516982649003</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0320175432383841</v>
+        <v>0.03253452415718202</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>29</v>
@@ -5996,19 +5996,19 @@
         <v>31869</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22309</v>
+        <v>21344</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>44793</v>
+        <v>44797</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01550210699982712</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01085174103564833</v>
+        <v>0.01038208051189032</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02178855528969564</v>
+        <v>0.02179067748708991</v>
       </c>
     </row>
     <row r="11">
@@ -6025,19 +6025,19 @@
         <v>26273</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>17481</v>
+        <v>17188</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>38170</v>
+        <v>39409</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02586050117504727</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01720655790751293</v>
+        <v>0.01691759953878556</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03757048263987875</v>
+        <v>0.03879011967426385</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>54</v>
@@ -6046,19 +6046,19 @@
         <v>62019</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>46793</v>
+        <v>45887</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>80353</v>
+        <v>78722</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05964298123480754</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04500021811115262</v>
+        <v>0.04412871636089549</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07727411849234317</v>
+        <v>0.07570548448103366</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>78</v>
@@ -6067,19 +6067,19 @@
         <v>88293</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>69155</v>
+        <v>66627</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>108145</v>
+        <v>108001</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04294790407354475</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03363894342355799</v>
+        <v>0.03240917295107027</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05260460346550519</v>
+        <v>0.05253475555610727</v>
       </c>
     </row>
     <row r="12">
@@ -6096,19 +6096,19 @@
         <v>44409</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>32870</v>
+        <v>33092</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>58847</v>
+        <v>58559</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0437109654044719</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03235369173470493</v>
+        <v>0.03257241219002605</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05792188804458098</v>
+        <v>0.05763843311797964</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>67</v>
@@ -6117,19 +6117,19 @@
         <v>77765</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>59636</v>
+        <v>62391</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>97550</v>
+        <v>98177</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07478556282992521</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05735157533538283</v>
+        <v>0.06000080816200977</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09381260084687952</v>
+        <v>0.09441578928888855</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>112</v>
@@ -6138,19 +6138,19 @@
         <v>122174</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>100786</v>
+        <v>102299</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>142780</v>
+        <v>145802</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0594287032726816</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04902525767538804</v>
+        <v>0.04976086977718929</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06945231207902405</v>
+        <v>0.07092225757957818</v>
       </c>
     </row>
     <row r="13">
@@ -6167,19 +6167,19 @@
         <v>108341</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>87742</v>
+        <v>88170</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>126649</v>
+        <v>129419</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1066388385675478</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08636326789214832</v>
+        <v>0.08678420290649082</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1246584349802477</v>
+        <v>0.1273849387633586</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>141</v>
@@ -6188,19 +6188,19 @@
         <v>154202</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>131689</v>
+        <v>132431</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>177653</v>
+        <v>180253</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1482937045941936</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1266438461053096</v>
+        <v>0.1273568791220847</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1708467029881097</v>
+        <v>0.1733468075449239</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>245</v>
@@ -6209,19 +6209,19 @@
         <v>262543</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>233059</v>
+        <v>234757</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>293940</v>
+        <v>296900</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1277081466000286</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1133661214755806</v>
+        <v>0.1141922201185926</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1429806385013532</v>
+        <v>0.1444201067449895</v>
       </c>
     </row>
     <row r="14">
@@ -6238,19 +6238,19 @@
         <v>826086</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>803318</v>
+        <v>800674</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>853376</v>
+        <v>851745</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8131044362600939</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7906943361745388</v>
+        <v>0.7880923059392977</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8399659231147572</v>
+        <v>0.8383602389750406</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>694</v>
@@ -6259,19 +6259,19 @@
         <v>724841</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>695532</v>
+        <v>692640</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>759500</v>
+        <v>753873</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.697069390482397</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6688835629394563</v>
+        <v>0.6661026642046829</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7304004667955625</v>
+        <v>0.7249894082825068</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1455</v>
@@ -6280,19 +6280,19 @@
         <v>1550926</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1512219</v>
+        <v>1506941</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1592481</v>
+        <v>1588124</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7544131390539179</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7355846952527314</v>
+        <v>0.7330177172381588</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7746267262911825</v>
+        <v>0.7725070409695796</v>
       </c>
     </row>
     <row r="15">
@@ -6384,19 +6384,19 @@
         <v>9916</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4729</v>
+        <v>4825</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19248</v>
+        <v>18255</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01317282432738142</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006283149419517335</v>
+        <v>0.006410290254938346</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02557146845432097</v>
+        <v>0.02425168898388805</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>23</v>
@@ -6405,19 +6405,19 @@
         <v>28311</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18541</v>
+        <v>18552</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>42343</v>
+        <v>42808</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03636586413930783</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02381617686597668</v>
+        <v>0.02383009453943419</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05439051869528233</v>
+        <v>0.05498844509739604</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>32</v>
@@ -6426,19 +6426,19 @@
         <v>38226</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>26446</v>
+        <v>25253</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>53549</v>
+        <v>52023</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02496451982956667</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01727138145107627</v>
+        <v>0.01649174084446381</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03497154803864756</v>
+        <v>0.03397473416720266</v>
       </c>
     </row>
     <row r="17">
@@ -6455,19 +6455,19 @@
         <v>17818</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10486</v>
+        <v>11012</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27310</v>
+        <v>26632</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02367104516106976</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01393126963193254</v>
+        <v>0.01462946596765772</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03628087439697767</v>
+        <v>0.03538022102609981</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>36</v>
@@ -6476,19 +6476,19 @@
         <v>41634</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>30336</v>
+        <v>29704</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>56479</v>
+        <v>56891</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05347977164342203</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03896676203722128</v>
+        <v>0.03815577803218878</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07254922061128689</v>
+        <v>0.07307801759477273</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>54</v>
@@ -6497,19 +6497,19 @@
         <v>59452</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>45682</v>
+        <v>45704</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>76678</v>
+        <v>77917</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03882625676067545</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02983378520076654</v>
+        <v>0.02984820365188299</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05007651689861933</v>
+        <v>0.05088530958511519</v>
       </c>
     </row>
     <row r="18">
@@ -6526,19 +6526,19 @@
         <v>32390</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>21861</v>
+        <v>21781</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>45615</v>
+        <v>45389</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04303012131455349</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02904199961653542</v>
+        <v>0.02893557495394302</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06059985154661283</v>
+        <v>0.06029920337622988</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>31</v>
@@ -6547,19 +6547,19 @@
         <v>34207</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>23947</v>
+        <v>22637</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>47670</v>
+        <v>46956</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0439399203711108</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03076019778335736</v>
+        <v>0.02907753634891814</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06123342680277966</v>
+        <v>0.06031666196021082</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>61</v>
@@ -6568,19 +6568,19 @@
         <v>66597</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>51360</v>
+        <v>52301</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>84554</v>
+        <v>86317</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0434926770437763</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03354169579143491</v>
+        <v>0.03415648659128645</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.055220191902532</v>
+        <v>0.05637121658753892</v>
       </c>
     </row>
     <row r="19">
@@ -6597,19 +6597,19 @@
         <v>70208</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>54152</v>
+        <v>55945</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>89615</v>
+        <v>88256</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09327113743355754</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07194115196847609</v>
+        <v>0.07432291671853006</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1190535201030681</v>
+        <v>0.1172489166440274</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>93</v>
@@ -6618,19 +6618,19 @@
         <v>102529</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>84527</v>
+        <v>84210</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>124760</v>
+        <v>123302</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1317015227024051</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1085775436954278</v>
+        <v>0.108170413709684</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1602570676758026</v>
+        <v>0.1583844275247924</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>158</v>
@@ -6639,19 +6639,19 @@
         <v>172737</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>148394</v>
+        <v>149654</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>198916</v>
+        <v>201260</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1128097319772918</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09691223006456513</v>
+        <v>0.09773466132444501</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1299063490534279</v>
+        <v>0.1314370498232428</v>
       </c>
     </row>
     <row r="20">
@@ -6668,19 +6668,19 @@
         <v>622395</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>601476</v>
+        <v>600472</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>644194</v>
+        <v>642432</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8268548717634377</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7990640821652121</v>
+        <v>0.7977302686862703</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.855814260279287</v>
+        <v>0.8534741762411221</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>547</v>
@@ -6689,19 +6689,19 @@
         <v>571817</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>542782</v>
+        <v>545402</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>593907</v>
+        <v>596718</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7345129211437542</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6972167068033088</v>
+        <v>0.7005829743010513</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.762888791583562</v>
+        <v>0.7664991979294358</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1116</v>
@@ -6710,19 +6710,19 @@
         <v>1194212</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1160746</v>
+        <v>1158989</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1229582</v>
+        <v>1224083</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7799068143886898</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7580513637816195</v>
+        <v>0.7569037638620575</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8030062458453128</v>
+        <v>0.7994148531604135</v>
       </c>
     </row>
     <row r="21">
@@ -6814,19 +6814,19 @@
         <v>13172</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7212</v>
+        <v>7362</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>21401</v>
+        <v>22031</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01413422164049774</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.007739397833790893</v>
+        <v>0.007900289615693059</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0229653556479905</v>
+        <v>0.02364072548744217</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>26</v>
@@ -6835,19 +6835,19 @@
         <v>31508</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>20814</v>
+        <v>21599</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>45725</v>
+        <v>45962</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03036676927671531</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02006025466340912</v>
+        <v>0.02081669518459436</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0440682353480715</v>
+        <v>0.04429684650469643</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>39</v>
@@ -6856,19 +6856,19 @@
         <v>44680</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>32150</v>
+        <v>33174</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>59944</v>
+        <v>61107</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02268609613985767</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01632385372501437</v>
+        <v>0.01684394738232262</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03043647586705346</v>
+        <v>0.03102682183486968</v>
       </c>
     </row>
     <row r="23">
@@ -6885,19 +6885,19 @@
         <v>31663</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>21864</v>
+        <v>22149</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>44888</v>
+        <v>44681</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0339776607760076</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02346255160646262</v>
+        <v>0.02376772748996218</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04816850633384312</v>
+        <v>0.04794676538842445</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>53</v>
@@ -6906,19 +6906,19 @@
         <v>60736</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>47538</v>
+        <v>45620</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>80539</v>
+        <v>78252</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.05853599080500047</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0458160077090049</v>
+        <v>0.04396759373778716</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07762137139090536</v>
+        <v>0.07541736191249093</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>84</v>
@@ -6927,19 +6927,19 @@
         <v>92400</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>75480</v>
+        <v>74509</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>113317</v>
+        <v>111746</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0469158489784078</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03832473374573076</v>
+        <v>0.03783184855045287</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05753627464819503</v>
+        <v>0.05673880111404473</v>
       </c>
     </row>
     <row r="24">
@@ -6956,19 +6956,19 @@
         <v>36967</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>25593</v>
+        <v>25869</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>49401</v>
+        <v>50581</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03966889629529365</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0274638880605273</v>
+        <v>0.02776019251138557</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0530112967876744</v>
+        <v>0.05427809077093294</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>49</v>
@@ -6977,19 +6977,19 @@
         <v>57646</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>44013</v>
+        <v>43951</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>76015</v>
+        <v>75497</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05555707664395113</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04241840631950063</v>
+        <v>0.04235891016375923</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07326147646646865</v>
+        <v>0.07276163723311947</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>86</v>
@@ -6998,19 +6998,19 @@
         <v>94613</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>76038</v>
+        <v>76642</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>114504</v>
+        <v>118761</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0480393460490808</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03860796629097535</v>
+        <v>0.0389148625329378</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05813939998011133</v>
+        <v>0.06030079425070112</v>
       </c>
     </row>
     <row r="25">
@@ -7027,19 +7027,19 @@
         <v>86274</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>70239</v>
+        <v>70992</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>105972</v>
+        <v>108663</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0925792510865885</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07537244718424779</v>
+        <v>0.07618056162534378</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1137179123273446</v>
+        <v>0.1166052358502901</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>109</v>
@@ -7048,19 +7048,19 @@
         <v>126771</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>104859</v>
+        <v>106694</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>151586</v>
+        <v>152545</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.122178295412902</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1010599000546403</v>
+        <v>0.1028289311083342</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1460940247283814</v>
+        <v>0.1470183855553591</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>194</v>
@@ -7069,19 +7069,19 @@
         <v>213045</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>188032</v>
+        <v>183046</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>240444</v>
+        <v>242694</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1081730640882429</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09547291088621958</v>
+        <v>0.09294138049683706</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1220849748174622</v>
+        <v>0.1232272159157938</v>
       </c>
     </row>
     <row r="26">
@@ -7098,19 +7098,19 @@
         <v>763813</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>737120</v>
+        <v>735800</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>786111</v>
+        <v>784647</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8196399702016125</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7909956185738608</v>
+        <v>0.7895784950072002</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8435672135448734</v>
+        <v>0.8419967310744094</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>716</v>
@@ -7119,19 +7119,19 @@
         <v>760930</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>729192</v>
+        <v>731466</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>791594</v>
+        <v>790898</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7333618678614311</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7027743244327637</v>
+        <v>0.7049656933155652</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7629150221572876</v>
+        <v>0.7622445731126464</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1476</v>
@@ -7140,19 +7140,19 @@
         <v>1524743</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1487514</v>
+        <v>1490057</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1561501</v>
+        <v>1564425</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7741856447444108</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7552823756535888</v>
+        <v>0.7565738337611206</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.792849159639737</v>
+        <v>0.7943341889318593</v>
       </c>
     </row>
     <row r="27">
@@ -7244,19 +7244,19 @@
         <v>45576</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>34318</v>
+        <v>33059</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>61138</v>
+        <v>60091</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0135255062634912</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01018456530651595</v>
+        <v>0.009810723809388841</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01814372570335524</v>
+        <v>0.01783307175395184</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>92</v>
@@ -7265,19 +7265,19 @@
         <v>107929</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>85921</v>
+        <v>88317</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>131455</v>
+        <v>130354</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03064422114425501</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02439548565681655</v>
+        <v>0.02507592039549624</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03732401997115445</v>
+        <v>0.03701145695795574</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>137</v>
@@ -7286,19 +7286,19 @@
         <v>153505</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>129062</v>
+        <v>128493</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>181020</v>
+        <v>180541</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02227409303500862</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01872741354353518</v>
+        <v>0.01864486192385016</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02626663615154982</v>
+        <v>0.02619724822777346</v>
       </c>
     </row>
     <row r="29">
@@ -7315,19 +7315,19 @@
         <v>93916</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>75321</v>
+        <v>75381</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>114217</v>
+        <v>115530</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02787132648694658</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02235304218422473</v>
+        <v>0.02237075300631769</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03389610568229726</v>
+        <v>0.03428565678823997</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>188</v>
@@ -7336,19 +7336,19 @@
         <v>213817</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>186534</v>
+        <v>185973</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>244481</v>
+        <v>246996</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06070918577347415</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05296268363950561</v>
+        <v>0.05280343120519859</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0694155605165941</v>
+        <v>0.07012955343893487</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>279</v>
@@ -7357,19 +7357,19 @@
         <v>307733</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>274740</v>
+        <v>272950</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>345315</v>
+        <v>346094</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04465324401756015</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03986586080193546</v>
+        <v>0.03960608300666819</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05010649190200017</v>
+        <v>0.05021953418089797</v>
       </c>
     </row>
     <row r="30">
@@ -7386,19 +7386,19 @@
         <v>136887</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>116430</v>
+        <v>113608</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>161701</v>
+        <v>162336</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.04062381228832417</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03455269534395877</v>
+        <v>0.03371540537331266</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04798765147145549</v>
+        <v>0.04817616723032909</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>179</v>
@@ -7407,19 +7407,19 @@
         <v>204480</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>176328</v>
+        <v>175159</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>236436</v>
+        <v>234445</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.05805800959015292</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.05006481867284958</v>
+        <v>0.04973287827915142</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.06713135152926254</v>
+        <v>0.06656606497177454</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>313</v>
@@ -7428,19 +7428,19 @@
         <v>341367</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>305958</v>
+        <v>303481</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>378650</v>
+        <v>379471</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.04953362759567499</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.04439568146988071</v>
+        <v>0.04403630081096916</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05494351085041864</v>
+        <v>0.05506265309280205</v>
       </c>
     </row>
     <row r="31">
@@ -7457,19 +7457,19 @@
         <v>348947</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>318163</v>
+        <v>314179</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>390371</v>
+        <v>386029</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1035564142776256</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09442073338416754</v>
+        <v>0.09323853256452033</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1158496641611303</v>
+        <v>0.1145613582073432</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>444</v>
@@ -7478,19 +7478,19 @@
         <v>488548</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>447032</v>
+        <v>443933</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>533507</v>
+        <v>531084</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1387137197735432</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1269260080085291</v>
+        <v>0.1260462364021676</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1514790071654257</v>
+        <v>0.1507909341248781</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>780</v>
@@ -7499,19 +7499,19 @@
         <v>837495</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>783381</v>
+        <v>781940</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>894022</v>
+        <v>894626</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1215236939435428</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1136715403784289</v>
+        <v>0.1134624619099948</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1297259562706603</v>
+        <v>0.1298136199984955</v>
       </c>
     </row>
     <row r="32">
@@ -7528,19 +7528,19 @@
         <v>2744304</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2695059</v>
+        <v>2700275</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2789999</v>
+        <v>2792580</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8144229406836124</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7998086855079141</v>
+        <v>0.8013564155429814</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8279836696260008</v>
+        <v>0.8287498626844544</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2413</v>
@@ -7549,19 +7549,19 @@
         <v>2507215</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2446904</v>
+        <v>2448425</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2561718</v>
+        <v>2563596</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7118748637185747</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6947506972613677</v>
+        <v>0.6951823915443349</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7273497808454599</v>
+        <v>0.7278828968326384</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5015</v>
@@ -7570,19 +7570,19 @@
         <v>5251519</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5180685</v>
+        <v>5174038</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5326460</v>
+        <v>5318182</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7620153414082135</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7517370401300809</v>
+        <v>0.7507725652503007</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7728896855024416</v>
+        <v>0.7716884119054603</v>
       </c>
     </row>
     <row r="33">
@@ -7914,19 +7914,19 @@
         <v>26889</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17763</v>
+        <v>18575</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37680</v>
+        <v>38504</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03898612666630399</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0257538391965371</v>
+        <v>0.02693249110548382</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05463208028465052</v>
+        <v>0.05582652869552483</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>92</v>
@@ -7935,19 +7935,19 @@
         <v>39620</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>32017</v>
+        <v>31549</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>47622</v>
+        <v>49688</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05404286181771526</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04367235364053448</v>
+        <v>0.04303402192288783</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0649589423877394</v>
+        <v>0.06777641705451162</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>127</v>
@@ -7956,19 +7956,19 @@
         <v>66508</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>56145</v>
+        <v>54219</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>80912</v>
+        <v>80384</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04674417260542908</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03946035592509359</v>
+        <v>0.03810668161353384</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05686724721877403</v>
+        <v>0.0564965933843106</v>
       </c>
     </row>
     <row r="5">
@@ -7985,19 +7985,19 @@
         <v>44599</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>34235</v>
+        <v>32733</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>59035</v>
+        <v>58713</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.06466377868660618</v>
+        <v>0.06466377868660617</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04963724465076066</v>
+        <v>0.04745952262355085</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08559449713302858</v>
+        <v>0.08512757892242234</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>124</v>
@@ -8006,19 +8006,19 @@
         <v>61992</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>52122</v>
+        <v>51732</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>72732</v>
+        <v>72768</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.08455988385212802</v>
+        <v>0.08455988385212801</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07109713616945033</v>
+        <v>0.0705653022036713</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09920946484215076</v>
+        <v>0.0992595318497632</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>179</v>
@@ -8027,19 +8027,19 @@
         <v>106591</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>90776</v>
+        <v>90906</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>124146</v>
+        <v>127783</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.07491533032323802</v>
+        <v>0.07491533032323804</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06379976969512993</v>
+        <v>0.06389140832776714</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08725370556976737</v>
+        <v>0.08980968879923799</v>
       </c>
     </row>
     <row r="6">
@@ -8056,19 +8056,19 @@
         <v>58099</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45797</v>
+        <v>45415</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>73152</v>
+        <v>74204</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.08423690043587222</v>
+        <v>0.0842369004358722</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06640100999301715</v>
+        <v>0.06584741848749756</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1060632542768371</v>
+        <v>0.1075881100410738</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>153</v>
@@ -8077,19 +8077,19 @@
         <v>80709</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>68604</v>
+        <v>68564</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>98079</v>
+        <v>96255</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.110090712818232</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09357840146055781</v>
+        <v>0.09352401658315788</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1337843300059882</v>
+        <v>0.1312965946663689</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>229</v>
@@ -8098,19 +8098,19 @@
         <v>138808</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>121508</v>
+        <v>119493</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>159843</v>
+        <v>157935</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.09755818570435013</v>
+        <v>0.09755818570435017</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0853991617833281</v>
+        <v>0.0839833726218029</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1123421244915204</v>
+        <v>0.1110015947820842</v>
       </c>
     </row>
     <row r="7">
@@ -8127,19 +8127,19 @@
         <v>81669</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>67157</v>
+        <v>65908</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>101459</v>
+        <v>98471</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1184121401339245</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09737062714117595</v>
+        <v>0.09555927518116232</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1471053632055551</v>
+        <v>0.1427720047022772</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>210</v>
@@ -8148,19 +8148,19 @@
         <v>106196</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>92725</v>
+        <v>91495</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>121574</v>
+        <v>120369</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1448559935048661</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1264813906952297</v>
+        <v>0.1248033508249576</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1658323378951533</v>
+        <v>0.1641891792997892</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>319</v>
@@ -8169,19 +8169,19 @@
         <v>187865</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>164768</v>
+        <v>166877</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>208121</v>
+        <v>210263</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.132037446496574</v>
+        <v>0.1320374464965741</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1158036891070401</v>
+        <v>0.1172862847451311</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1462734043881398</v>
+        <v>0.1477791046498034</v>
       </c>
     </row>
     <row r="8">
@@ -8198,19 +8198,19 @@
         <v>478449</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>449991</v>
+        <v>452285</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>500953</v>
+        <v>502804</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6937010540772932</v>
+        <v>0.693701054077293</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6524394169501514</v>
+        <v>0.6557659674482214</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7263300349021647</v>
+        <v>0.7290128053326563</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>660</v>
@@ -8219,19 +8219,19 @@
         <v>444597</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>423457</v>
+        <v>424520</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>465072</v>
+        <v>466532</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6064505480070586</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.577615004167886</v>
+        <v>0.5790645433486301</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.634379988224597</v>
+        <v>0.6363711309068238</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1114</v>
@@ -8240,19 +8240,19 @@
         <v>923047</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>889937</v>
+        <v>887150</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>955048</v>
+        <v>953597</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.6487448648704086</v>
+        <v>0.6487448648704087</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6254741507158724</v>
+        <v>0.6235156597234093</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6712365504049463</v>
+        <v>0.6702168444977963</v>
       </c>
     </row>
     <row r="9">
@@ -8344,19 +8344,19 @@
         <v>22451</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15191</v>
+        <v>14328</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33024</v>
+        <v>32699</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.02145801471774411</v>
+        <v>0.0214580147177441</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01451882329689904</v>
+        <v>0.0136940859362527</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03156251337207272</v>
+        <v>0.03125207710611893</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>84</v>
@@ -8365,19 +8365,19 @@
         <v>48805</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>38307</v>
+        <v>38403</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60073</v>
+        <v>60407</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04564637729686945</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03582812193485456</v>
+        <v>0.03591722377297882</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05618471895208356</v>
+        <v>0.05649699749526909</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>112</v>
@@ -8386,19 +8386,19 @@
         <v>71257</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>58552</v>
+        <v>57695</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>86863</v>
+        <v>86281</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03368312127424429</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02767771236525455</v>
+        <v>0.02727233561857439</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04106009348574243</v>
+        <v>0.04078533060844951</v>
       </c>
     </row>
     <row r="11">
@@ -8415,19 +8415,19 @@
         <v>44846</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>32558</v>
+        <v>34347</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>59255</v>
+        <v>60403</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0428616612705043</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03111722646847391</v>
+        <v>0.03282745971910551</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05663307148413162</v>
+        <v>0.05772997565873074</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>134</v>
@@ -8436,19 +8436,19 @@
         <v>86451</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>73420</v>
+        <v>71568</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>106707</v>
+        <v>104328</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08085536874069603</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0686677996723635</v>
+        <v>0.06693642601337101</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09980092996283882</v>
+        <v>0.09757569136001865</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>187</v>
@@ -8457,19 +8457,19 @@
         <v>131297</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>111973</v>
+        <v>112608</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>154195</v>
+        <v>153018</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.0620641649860901</v>
+        <v>0.06206416498609012</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05293002314994894</v>
+        <v>0.05322978244401937</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07288833454854257</v>
+        <v>0.07233206127553696</v>
       </c>
     </row>
     <row r="12">
@@ -8486,19 +8486,19 @@
         <v>70175</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>55574</v>
+        <v>55152</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>88017</v>
+        <v>87661</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06706957015150128</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05311486185554774</v>
+        <v>0.05271130137639406</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08412177871154784</v>
+        <v>0.08378245579341224</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>161</v>
@@ -8507,19 +8507,19 @@
         <v>104057</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>87299</v>
+        <v>89755</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>121928</v>
+        <v>125922</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.09732183654693774</v>
+        <v>0.09732183654693777</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08164863701338942</v>
+        <v>0.08394620078175716</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1140362531991768</v>
+        <v>0.1177717479853217</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>237</v>
@@ -8528,19 +8528,19 @@
         <v>174231</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>151188</v>
+        <v>152923</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>197569</v>
+        <v>197823</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.08235945093818223</v>
+        <v>0.08235945093818221</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07146687958519445</v>
+        <v>0.0722868467154244</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09339125124457195</v>
+        <v>0.09351135018971686</v>
       </c>
     </row>
     <row r="13">
@@ -8557,19 +8557,19 @@
         <v>113010</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>91092</v>
+        <v>94461</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>133413</v>
+        <v>136771</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.108009169213305</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0870613703410897</v>
+        <v>0.09028065057575414</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1275092204709352</v>
+        <v>0.1307184640058662</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>269</v>
@@ -8578,19 +8578,19 @@
         <v>159646</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>141369</v>
+        <v>141135</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>178461</v>
+        <v>180290</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1493137860022452</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1322198548799686</v>
+        <v>0.1320005303778504</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1669107631150952</v>
+        <v>0.1686211399973314</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>384</v>
@@ -8599,19 +8599,19 @@
         <v>272656</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>245769</v>
+        <v>246740</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>300598</v>
+        <v>302992</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1288850486726272</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.116175140556513</v>
+        <v>0.1166342503951394</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1420931999813505</v>
+        <v>0.1432249809657295</v>
       </c>
     </row>
     <row r="14">
@@ -8628,19 +8628,19 @@
         <v>795817</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>767098</v>
+        <v>766200</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>823316</v>
+        <v>824731</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7606015846469453</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7331540329271133</v>
+        <v>0.7322956178467951</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.786884118171384</v>
+        <v>0.7882362921500136</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>865</v>
@@ -8649,19 +8649,19 @@
         <v>670242</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>641739</v>
+        <v>640406</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>694780</v>
+        <v>698122</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6268626314132517</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6002047671703477</v>
+        <v>0.5989581586614963</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6498131539861022</v>
+        <v>0.6529383676334811</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1555</v>
@@ -8670,19 +8670,19 @@
         <v>1466059</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1424936</v>
+        <v>1423720</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1503806</v>
+        <v>1505830</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6930082141288562</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6735692378165642</v>
+        <v>0.6729945849931057</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7108512667325645</v>
+        <v>0.7118078628414501</v>
       </c>
     </row>
     <row r="15">
@@ -8774,19 +8774,19 @@
         <v>11780</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6285</v>
+        <v>6521</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21765</v>
+        <v>20958</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01466907929993344</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007825739371426698</v>
+        <v>0.008120182856392254</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02710156195075977</v>
+        <v>0.02609677267019478</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -8795,19 +8795,19 @@
         <v>15634</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10370</v>
+        <v>10496</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22829</v>
+        <v>23393</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01926290302866711</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01277704778895278</v>
+        <v>0.01293305122623424</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02812839167291098</v>
+        <v>0.02882354362496449</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>36</v>
@@ -8816,19 +8816,19 @@
         <v>27414</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18884</v>
+        <v>19086</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>39472</v>
+        <v>38081</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.01697812375610576</v>
+        <v>0.01697812375610575</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01169533812876514</v>
+        <v>0.0118203560379854</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02444569276671654</v>
+        <v>0.02358436583416136</v>
       </c>
     </row>
     <row r="17">
@@ -8845,19 +8845,19 @@
         <v>38638</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>26907</v>
+        <v>27564</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>53156</v>
+        <v>53975</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.04811315602685924</v>
+        <v>0.04811315602685923</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03350554174185187</v>
+        <v>0.03432369194479452</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06619087711995579</v>
+        <v>0.06721074270351148</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>73</v>
@@ -8866,19 +8866,19 @@
         <v>47876</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>37767</v>
+        <v>37695</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>59253</v>
+        <v>60492</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05898994937744335</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04653436036886742</v>
+        <v>0.04644537229606788</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07300744597449721</v>
+        <v>0.07453348869381438</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>109</v>
@@ -8887,19 +8887,19 @@
         <v>86515</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>70326</v>
+        <v>70021</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>105995</v>
+        <v>103647</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.05358027903160311</v>
+        <v>0.05358027903160312</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0435539796121347</v>
+        <v>0.04336562030037482</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06564493227238487</v>
+        <v>0.06419068482750848</v>
       </c>
     </row>
     <row r="18">
@@ -8916,19 +8916,19 @@
         <v>43779</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>31874</v>
+        <v>30679</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>58804</v>
+        <v>57911</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.0545145508912237</v>
+        <v>0.05451455089122369</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03969014092416152</v>
+        <v>0.03820152476655938</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07322398742214964</v>
+        <v>0.07211205432489495</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>96</v>
@@ -8937,19 +8937,19 @@
         <v>68071</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>54156</v>
+        <v>54207</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>81066</v>
+        <v>82589</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.08387199379984089</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06672688779074007</v>
+        <v>0.06678988471154432</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09988352798310642</v>
+        <v>0.1017600063521849</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>138</v>
@@ -8958,19 +8958,19 @@
         <v>111850</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>93215</v>
+        <v>93834</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>132703</v>
+        <v>132839</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.06927080729077519</v>
+        <v>0.0692708072907752</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05772984718414245</v>
+        <v>0.05811326353742139</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08218585138000348</v>
+        <v>0.08226967501042248</v>
       </c>
     </row>
     <row r="19">
@@ -8987,19 +8987,19 @@
         <v>98669</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>78745</v>
+        <v>80641</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>119884</v>
+        <v>122575</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.1228642762140863</v>
+        <v>0.1228642762140864</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09805464988496414</v>
+        <v>0.1004159961839097</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1492821070772645</v>
+        <v>0.1526318494852973</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>171</v>
@@ -9008,19 +9008,19 @@
         <v>117501</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>100118</v>
+        <v>100875</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>135152</v>
+        <v>135743</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.144776796211137</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1233589805946157</v>
+        <v>0.1242916996419311</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.166524423486352</v>
+        <v>0.167252599066688</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>263</v>
@@ -9029,19 +9029,19 @@
         <v>216170</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>190850</v>
+        <v>188022</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>243809</v>
+        <v>243593</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.1338784086248443</v>
+        <v>0.1338784086248444</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1181973510574494</v>
+        <v>0.1164454643819116</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.150995718705315</v>
+        <v>0.1508618741037862</v>
       </c>
     </row>
     <row r="20">
@@ -9058,19 +9058,19 @@
         <v>610206</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>579893</v>
+        <v>583121</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>634798</v>
+        <v>637836</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7598389375678973</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7220925409240168</v>
+        <v>0.7261123921754079</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7904606175224425</v>
+        <v>0.7942445555876917</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>682</v>
@@ -9079,19 +9079,19 @@
         <v>562520</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>539053</v>
+        <v>539419</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>585051</v>
+        <v>585552</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6930983575829114</v>
+        <v>0.6930983575829117</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6641838555226206</v>
+        <v>0.6646351349537124</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7208591654601249</v>
+        <v>0.7214763211956184</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1176</v>
@@ -9100,19 +9100,19 @@
         <v>1172726</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1134617</v>
+        <v>1135552</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1207451</v>
+        <v>1208993</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7262923812966714</v>
+        <v>0.7262923812966715</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.702690843058933</v>
+        <v>0.7032694952717874</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7477979337431335</v>
+        <v>0.7487533039196881</v>
       </c>
     </row>
     <row r="21">
@@ -9204,19 +9204,19 @@
         <v>22723</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>15061</v>
+        <v>14999</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>33492</v>
+        <v>33577</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02295106398433072</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0152126385496653</v>
+        <v>0.015149914983272</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03382814457782567</v>
+        <v>0.03391396702626769</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>89</v>
@@ -9225,19 +9225,19 @@
         <v>57832</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>46529</v>
+        <v>46923</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>71206</v>
+        <v>71154</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05178011425080262</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04165994558389038</v>
+        <v>0.0420126102601976</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06375410303527587</v>
+        <v>0.0637076252630162</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>116</v>
@@ -9246,19 +9246,19 @@
         <v>80555</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>66256</v>
+        <v>65942</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>98132</v>
+        <v>95338</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0382331938749275</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03144671038151921</v>
+        <v>0.03129745140849107</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04657572069633792</v>
+        <v>0.04524935169636803</v>
       </c>
     </row>
     <row r="23">
@@ -9275,19 +9275,19 @@
         <v>67292</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>55380</v>
+        <v>53817</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>84102</v>
+        <v>83333</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.0679679166181424</v>
+        <v>0.06796791661814242</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05593601461073797</v>
+        <v>0.05435711211273497</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.08494638849880672</v>
+        <v>0.08416942633495911</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>171</v>
@@ -9296,19 +9296,19 @@
         <v>107340</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>91929</v>
+        <v>92485</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>124171</v>
+        <v>124048</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.09610694837191566</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.08230855198647009</v>
+        <v>0.08280650485096111</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1111764590632432</v>
+        <v>0.1110666286081269</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>253</v>
@@ -9317,19 +9317,19 @@
         <v>174632</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>154605</v>
+        <v>153784</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>197550</v>
+        <v>198027</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0828842712771409</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.07337885032443675</v>
+        <v>0.07298946028225209</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09376138729302262</v>
+        <v>0.09398795243472123</v>
       </c>
     </row>
     <row r="24">
@@ -9346,19 +9346,19 @@
         <v>54406</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>41879</v>
+        <v>41594</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>70767</v>
+        <v>69356</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05495165009172269</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04229923313200792</v>
+        <v>0.04201110079576102</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07147725136153124</v>
+        <v>0.07005251200475016</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>149</v>
@@ -9367,19 +9367,19 @@
         <v>94924</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>80170</v>
+        <v>79573</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>111177</v>
+        <v>111403</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.08499044765844163</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0717800553013626</v>
+        <v>0.07124598657033458</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09954260183149581</v>
+        <v>0.0997450952598361</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>213</v>
@@ -9388,19 +9388,19 @@
         <v>149330</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>130798</v>
+        <v>130566</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>174663</v>
+        <v>171956</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0708750607462118</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.062079456422701</v>
+        <v>0.06196948159584435</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08289882799977924</v>
+        <v>0.08161387087119015</v>
       </c>
     </row>
     <row r="25">
@@ -9417,19 +9417,19 @@
         <v>134286</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>114990</v>
+        <v>114188</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>159702</v>
+        <v>159693</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1356337643389048</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1161446410348404</v>
+        <v>0.1153345008379073</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1613051472996523</v>
+        <v>0.1612959021369097</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>298</v>
@@ -9438,19 +9438,19 @@
         <v>188441</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>168586</v>
+        <v>169810</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>212960</v>
+        <v>211039</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1687212031662311</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1509440393661312</v>
+        <v>0.1520400508432482</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1906745357295031</v>
+        <v>0.1889539625086241</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>446</v>
@@ -9459,19 +9459,19 @@
         <v>322727</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>292842</v>
+        <v>291153</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>356650</v>
+        <v>353705</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1531732438997158</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1389890310090902</v>
+        <v>0.1381875220064656</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1692739231660464</v>
+        <v>0.167876086144575</v>
       </c>
     </row>
     <row r="26">
@@ -9488,19 +9488,19 @@
         <v>711355</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>681758</v>
+        <v>679023</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>740318</v>
+        <v>739011</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7184956049668995</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6886015369435952</v>
+        <v>0.6858390468571607</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7477486340604719</v>
+        <v>0.7464293227399688</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>852</v>
@@ -9509,19 +9509,19 @@
         <v>668341</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>639112</v>
+        <v>638171</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>698282</v>
+        <v>693874</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.5984012865526092</v>
+        <v>0.598401286552609</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5722310549095344</v>
+        <v>0.5713886671774573</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.625208729461086</v>
+        <v>0.6212623959145847</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1537</v>
@@ -9530,19 +9530,19 @@
         <v>1379696</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1337159</v>
+        <v>1335032</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1421024</v>
+        <v>1422228</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6548342302020039</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.634644802840607</v>
+        <v>0.6336353425261044</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6744491634343577</v>
+        <v>0.6750207816042769</v>
       </c>
     </row>
     <row r="27">
@@ -9634,19 +9634,19 @@
         <v>83844</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>67585</v>
+        <v>67033</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>103006</v>
+        <v>103850</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02375756462528054</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01915043420460143</v>
+        <v>0.0189940947774411</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02918728854194733</v>
+        <v>0.02942655046798955</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>289</v>
@@ -9655,19 +9655,19 @@
         <v>161891</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>143356</v>
+        <v>145256</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>180961</v>
+        <v>183190</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04339305864960942</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03842499415578621</v>
+        <v>0.03893441779671316</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04850465286434142</v>
+        <v>0.04910227437876413</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>391</v>
@@ -9676,19 +9676,19 @@
         <v>245734</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>221293</v>
+        <v>219825</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>274012</v>
+        <v>271863</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.03384801227853911</v>
+        <v>0.03384801227853912</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03048144063922476</v>
+        <v>0.03027916311410236</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03774302530919398</v>
+        <v>0.03744701877432004</v>
       </c>
     </row>
     <row r="29">
@@ -9705,19 +9705,19 @@
         <v>195376</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>170357</v>
+        <v>171886</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>222829</v>
+        <v>223533</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05536077692939308</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04827139450930297</v>
+        <v>0.04870492360872803</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06313963255511083</v>
+        <v>0.06333919911654384</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>502</v>
@@ -9726,19 +9726,19 @@
         <v>303659</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>275497</v>
+        <v>278977</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>329956</v>
+        <v>334293</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.08139251175500946</v>
+        <v>0.08139251175500944</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0738439921567004</v>
+        <v>0.07477688760520214</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08844121691444783</v>
+        <v>0.08960381377009873</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>728</v>
@@ -9747,19 +9747,19 @@
         <v>499035</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>465030</v>
+        <v>463671</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>541029</v>
+        <v>539681</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06873817692024298</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06405432678473869</v>
+        <v>0.0638671531189116</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07452251446956998</v>
+        <v>0.07433685839714677</v>
       </c>
     </row>
     <row r="30">
@@ -9776,19 +9776,19 @@
         <v>226458</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>200534</v>
+        <v>198892</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>255336</v>
+        <v>256799</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.06416810006326856</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.05682239214464769</v>
+        <v>0.05635713840049957</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07235072519064835</v>
+        <v>0.07276542355250361</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>559</v>
@@ -9797,19 +9797,19 @@
         <v>347760</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>321051</v>
+        <v>319958</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>378993</v>
+        <v>380829</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.09321344926969315</v>
+        <v>0.09321344926969313</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08605431045615508</v>
+        <v>0.08576129844133279</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1015849462203148</v>
+        <v>0.1020770738704537</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>817</v>
@@ -9818,19 +9818,19 @@
         <v>574218</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>534927</v>
+        <v>535731</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>616415</v>
+        <v>616770</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.07909416076614206</v>
+        <v>0.07909416076614205</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07368212082847918</v>
+        <v>0.07379286963034054</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.08490643108487839</v>
+        <v>0.08495526932920476</v>
       </c>
     </row>
     <row r="31">
@@ -9847,19 +9847,19 @@
         <v>427634</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>389130</v>
+        <v>383870</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>473408</v>
+        <v>466884</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1211723738757616</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1102618971420352</v>
+        <v>0.1087715256006744</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1341425581069882</v>
+        <v>0.1322941282158453</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>948</v>
@@ -9868,19 +9868,19 @@
         <v>571784</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>533873</v>
+        <v>533900</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>608196</v>
+        <v>605224</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1532607812062997</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1430991548971571</v>
+        <v>0.1431062960583767</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1630206359677865</v>
+        <v>0.1622239213586139</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1412</v>
@@ -9889,19 +9889,19 @@
         <v>999419</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>940084</v>
+        <v>945417</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1052931</v>
+        <v>1057113</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.1376622260813671</v>
+        <v>0.1376622260813672</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.12948932178256</v>
+        <v>0.1302239187944749</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.145033170604841</v>
+        <v>0.1456092021254168</v>
       </c>
     </row>
     <row r="32">
@@ -9918,19 +9918,19 @@
         <v>2595828</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2542386</v>
+        <v>2540376</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2650675</v>
+        <v>2649787</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7355411845062962</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7203983068247176</v>
+        <v>0.7198285496108731</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7510823362679618</v>
+        <v>0.7508307796044913</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>3059</v>
@@ -9939,19 +9939,19 @@
         <v>2345700</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2303132</v>
+        <v>2290212</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2402779</v>
+        <v>2394066</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.6287401991193883</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6173303189473581</v>
+        <v>0.6138672971743856</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6440396682994507</v>
+        <v>0.6417041346404769</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5382</v>
@@ -9960,19 +9960,19 @@
         <v>4941528</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4871613</v>
+        <v>4869550</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5023099</v>
+        <v>5020941</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.6806574239537088</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6710271458692866</v>
+        <v>0.6707430033090775</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6918932597912035</v>
+        <v>0.6915959016703718</v>
       </c>
     </row>
     <row r="33">
